--- a/TestResults/LanguageGet.xlsx
+++ b/TestResults/LanguageGet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="40">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -74,174 +74,146 @@
     <t>Total number of records matching between DB &amp; Response: 1, below are the test steps for this test case</t>
   </si>
   <si>
-    <t>Response_langCd: 05Z
-DB_langCd: 05Z
-Response_englLanguageNm: Test04I
-DB_englLanguageNm: Test04I
-Response_nativeScriptLanguageNm: Test01I
-DB_nativeScriptLanguageNm: Test01I
+    <t xml:space="preserve">Response_langCd: ZZZ
+DB_langCd: ZZZ
+Response_englLanguageNm: Test_Marathi
+DB_englLanguageNm: Test_Marathi
+Response_nativeScriptLanguageNm: Test_Marathi Scipts
+DB_nativeScriptLanguageNm: Test_Marathi Scipts
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_dowNbr: 1
-    DB_dowNbr: 1
-    Response_transDowName: mon
-    DB_transDowName: mon
+    <t xml:space="preserve">    Response_dowNbr: 101
+    DB_dowNbr: 101
+    Response_transDowName: Test_Mon
+    DB_transDowName: Test_Mon
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_dowNbr: 2
-    DB_dowNbr: 2
-    Response_transDowName: tue
-    DB_transDowName: tue
+    <t xml:space="preserve">    Response_dowNbr: 102
+    DB_dowNbr: 102
+    Response_transDowName: Test_Tue
+    DB_transDowName: Test_Tue
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_dowNbr: 3
-    DB_dowNbr: 3
-    Response_transDowName: wed
-    DB_transDowName: wed
+    <t xml:space="preserve">    Response_dowNbr: 103
+    DB_dowNbr: 103
+    Response_transDowName: Test_Wed
+    DB_transDowName: Test_Wed
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_dowNbr: 4
-    DB_dowNbr: 4
-    Response_transDowName: thur
-    DB_transDowName: thur
+    <t xml:space="preserve">    Response_dowNbr: 104
+    DB_dowNbr: 104
+    Response_transDowName: Test_Thur
+    DB_transDowName: Test_Thur
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_dowNbr: 5
-    DB_dowNbr: 5
-    Response_transDowName: fri
-    DB_transDowName: fri
+    <t xml:space="preserve">    Response_dowNbr: 105
+    DB_dowNbr: 105
+    Response_transDowName: Test_Fri
+    DB_transDowName: Test_Fri
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_dowNbr: 6
-    DB_dowNbr: 6
-    Response_transDowName: sat
-    DB_transDowName: sat
+    <t xml:space="preserve">    Response_dowNbr: 106
+    DB_dowNbr: 106
+    Response_transDowName: Test_Sat
+    DB_transDowName: Test_Sat
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_dowNbr: 7
-    DB_dowNbr: 7
-    Response_transDowName: sun
-    DB_transDowName: sun
+    <t xml:space="preserve">    Response_dowNbr: 107
+    DB_dowNbr: 107
+    Response_transDowName: Test_Sun
+    DB_transDowName: Test_Sun
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_mthOfYrNbr: 1
-    DB_mthOfYrNbr: 1
-    Response_transMoyName: jan
-    DB_transMoyName: jan
+    <t xml:space="preserve">    Response_mthOfYrNbr: 101
+    DB_mthOfYrNbr: 101
+    Response_transMoyName: Test_Jan
+    DB_transMoyName: Test_Jan
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_mthOfYrNbr: 2
-    DB_mthOfYrNbr: 2
-    Response_transMoyName: Feb
-    DB_transMoyName: Feb
+    <t xml:space="preserve">    Response_mthOfYrNbr: 102
+    DB_mthOfYrNbr: 102
+    Response_transMoyName: Test_Feb
+    DB_transMoyName: Test_Feb
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_mthOfYrNbr: 3
-    DB_mthOfYrNbr: 3
-    Response_transMoyName: mar
-    DB_transMoyName: mar
+    <t xml:space="preserve">    Response_mthOfYrNbr: 103
+    DB_mthOfYrNbr: 103
+    Response_transMoyName: Test_Mar
+    DB_transMoyName: Test_Mar
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_mthOfYrNbr: 4
-    DB_mthOfYrNbr: 4
-    Response_transMoyName: apr
-    DB_transMoyName: apr
+    <t xml:space="preserve">    Response_mthOfYrNbr: 104
+    DB_mthOfYrNbr: 104
+    Response_transMoyName: Test_Apr
+    DB_transMoyName: Test_Apr
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_mthOfYrNbr: 5
-    DB_mthOfYrNbr: 5
-    Response_transMoyName: may
-    DB_transMoyName: may
+    <t xml:space="preserve">    Response_mthOfYrNbr: 105
+    DB_mthOfYrNbr: 105
+    Response_transMoyName: Test_May
+    DB_transMoyName: Test_May
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_mthOfYrNbr: 6
-    DB_mthOfYrNbr: 6
-    Response_transMoyName: june
-    DB_transMoyName: june
+    <t xml:space="preserve">    Response_mthOfYrNbr: 106
+    DB_mthOfYrNbr: 106
+    Response_transMoyName: Test_June
+    DB_transMoyName: Test_June
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_mthOfYrNbr: 7
-    DB_mthOfYrNbr: 7
-    Response_transMoyName: july
-    DB_transMoyName: july
+    <t xml:space="preserve">    Response_mthOfYrNbr: 107
+    DB_mthOfYrNbr: 107
+    Response_transMoyName: Test_July
+    DB_transMoyName: Test_July
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_mthOfYrNbr: 8
-    DB_mthOfYrNbr: 8
-    Response_transMoyName: aug
-    DB_transMoyName: aug
+    <t xml:space="preserve">    Response_mthOfYrNbr: 108
+    DB_mthOfYrNbr: 108
+    Response_transMoyName: Test_Aug
+    DB_transMoyName: Test_Aug
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_mthOfYrNbr: 9
-    DB_mthOfYrNbr: 9
-    Response_transMoyName: sept
-    DB_transMoyName: sept
+    <t xml:space="preserve">    Response_mthOfYrNbr: 109
+    DB_mthOfYrNbr: 109
+    Response_transMoyName: Test_Sept
+    DB_transMoyName: Test_Sept
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_mthOfYrNbr: 10
-    DB_mthOfYrNbr: 10
-    Response_transMoyName: oct
-    DB_transMoyName: oct
+    <t xml:space="preserve">    Response_mthOfYrNbr: 110
+    DB_mthOfYrNbr: 110
+    Response_transMoyName: Test_Oct
+    DB_transMoyName: Test_Oct
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_mthOfYrNbr: 11
-    DB_mthOfYrNbr: 11
-    Response_transMoyName: nov
-    DB_transMoyName: nov
+    <t xml:space="preserve">    Response_mthOfYrNbr: 111
+    DB_mthOfYrNbr: 111
+    Response_transMoyName: Test_Nov
+    DB_transMoyName: Test_Nov
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Response_mthOfYrNbr: 12
-    DB_mthOfYrNbr: 12
-    Response_transMoyName: dec
-    DB_transMoyName: dec
+    <t xml:space="preserve">    Response_mthOfYrNbr: 112
+    DB_mthOfYrNbr: 112
+    Response_transMoyName: Test_Dec
+    DB_transMoyName: Test_Dec
 </t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>Verify that the Error message is displayed when the invalid Language code (not available in Script table) is passed in URI</t>
-  </si>
-  <si>
-    <t>Total number of records matching between DB &amp; Response: 0, below are the test steps for this test case</t>
-  </si>
-  <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>Verify that the Exception is received when the URI is not correct</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>
-{
-	"timestamp":"2019-08-16T09:21:10.228+0000",
-	"status":404,
-	"error":"Not Found",
-	"message":"No message available",
-	"path":"/language"
-}</t>
   </si>
 </sst>
 </file>
@@ -249,7 +221,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="255">
+  <fonts count="233">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -262,116 +234,6 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1595,7 +1457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -2291,72 +2153,6 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="232" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="244" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="246" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="248" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2371,17 +2167,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.58720703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.246484375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.2498046875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.382421875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.58818359375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.8267578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -3175,78 +2971,6 @@
       </c>
       <c r="L22"/>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="233">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s" s="234">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s" s="235">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s" s="236">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s" s="237">
-        <v>15</v>
-      </c>
-      <c r="F23" t="s" s="238">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s" s="239">
-        <v>16</v>
-      </c>
-      <c r="H23" t="s" s="240">
-        <v>17</v>
-      </c>
-      <c r="I23" t="s" s="241">
-        <v>15</v>
-      </c>
-      <c r="J23" t="s" s="242">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s" s="243">
-        <v>42</v>
-      </c>
-      <c r="L23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="244">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s" s="245">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s" s="246">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s" s="247">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s" s="248">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s" s="249">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s" s="250">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s" s="251">
-        <v>45</v>
-      </c>
-      <c r="I24" t="s" s="252">
-        <v>46</v>
-      </c>
-      <c r="J24" t="s" s="253">
-        <v>18</v>
-      </c>
-      <c r="K24" t="s" s="254">
-        <v>15</v>
-      </c>
-      <c r="L24"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
